--- a/bases/UPDATE/SCN/balanza comercial.xlsx
+++ b/bases/UPDATE/SCN/balanza comercial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\Ricardo Cantú\SimuladorCIEP\5.3\SimuladorCIEP\bases\UPDATE\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="balanza comercial" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="balanza_comercial" localSheetId="0">'balanza comercial'!$A$1:$E$391</definedName>
+    <definedName name="balanza_comercial" localSheetId="0">'balanza comercial'!$A$1:$E$395</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
   <si>
     <t>Sector externo &gt; Resumen de la balanza comercial de mercancías de México</t>
   </si>
@@ -1223,6 +1223,18 @@
     <t>2022/07</t>
   </si>
   <si>
+    <t>2022/08</t>
+  </si>
+  <si>
+    <t>2022/09</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
+    <t>2022/11</t>
+  </si>
+  <si>
     <t>Cifras oportunas:</t>
   </si>
   <si>
@@ -1237,7 +1249,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2022/07</t>
+      <t xml:space="preserve"> A partir de 2022/11</t>
     </r>
   </si>
   <si>
@@ -1274,7 +1286,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 30/08/2022 0:13:05</t>
+    <t>Fecha de consulta: 03/01/2023 19:26:04</t>
   </si>
 </sst>
 </file>
@@ -2097,11 +2109,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E391"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8586,50 +8596,82 @@
       <c r="D382" s="1">
         <v>-5959.4669999999996</v>
       </c>
-      <c r="E382" s="1"/>
+      <c r="E382" s="1">
+        <v>1926.1875</v>
+      </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A383" s="4"/>
-      <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
-      <c r="E383" s="4"/>
-    </row>
-    <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A384" s="2" t="s">
+      <c r="A383" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
-    </row>
-    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A385" s="2" t="s">
+      <c r="B383" s="1">
+        <v>50670</v>
+      </c>
+      <c r="C383" s="1">
+        <v>56168.196000000004</v>
+      </c>
+      <c r="D383" s="1">
+        <v>-5498.1959999999999</v>
+      </c>
+      <c r="E383" s="1">
+        <v>2062.3692000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A384" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
-    </row>
-    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A386" s="2" t="s">
+      <c r="B384" s="1">
+        <v>52338.034</v>
+      </c>
+      <c r="C384" s="1">
+        <v>53233.430999999997</v>
+      </c>
+      <c r="D384" s="1">
+        <v>-895.39700000000005</v>
+      </c>
+      <c r="E384" s="1">
+        <v>1901.6638</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A385" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-    </row>
-    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A387" s="2" t="s">
+      <c r="B385" s="1">
+        <v>49275.305</v>
+      </c>
+      <c r="C385" s="1">
+        <v>51287.15</v>
+      </c>
+      <c r="D385" s="1">
+        <v>-2011.8440000000001</v>
+      </c>
+      <c r="E385" s="1">
+        <v>1824.9117000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A386" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-      <c r="E387" s="2"/>
+      <c r="B386" s="1">
+        <v>49311.271999999997</v>
+      </c>
+      <c r="C386" s="1">
+        <v>49407.417000000001</v>
+      </c>
+      <c r="D386" s="1">
+        <v>-96.144999999999996</v>
+      </c>
+      <c r="E386" s="1"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A387" s="4"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+      <c r="E387" s="4"/>
     </row>
     <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="2" t="s">
@@ -8640,29 +8682,65 @@
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A389" s="1"/>
+    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A389" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A390" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B390" s="4"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A391" s="1"/>
+      <c r="A390" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+    </row>
+    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A391" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A392" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A394" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394" s="4"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A395" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A391:E391"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A394:B394"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A387:E387"/>
     <mergeCell ref="A388:E388"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A384:E384"/>
-    <mergeCell ref="A385:E385"/>
-    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="A389:E389"/>
+    <mergeCell ref="A390:E390"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
